--- a/docs/cnc/list.xlsx
+++ b/docs/cnc/list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11565" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="36" windowWidth="23256" windowHeight="11568" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>名称</t>
   </si>
@@ -70,83 +70,122 @@
   </si>
   <si>
     <t>联轴器</t>
+  </si>
+  <si>
+    <t>2012.7.18</t>
+  </si>
+  <si>
+    <t>百分表</t>
+  </si>
+  <si>
+    <t>出版社</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>书店</t>
+  </si>
+  <si>
+    <t>磁力表座</t>
+  </si>
+  <si>
+    <t>2012.7.4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?id=2335643918</t>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?spm=a1z09.5.0.45&amp;id=7759251936</t>
+  </si>
+  <si>
+    <t>S-400W-24V/16.6A</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>梅花型 Ø</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF006100"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>30L40,6.35*10</t>
+      <t>XB梅花型 Ø30L40,6.35*10</t>
     </r>
-  </si>
-  <si>
-    <t>2012.7.18</t>
-  </si>
-  <si>
-    <t>百分表</t>
-  </si>
-  <si>
-    <t>直角尺</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?id=8916522026</t>
+  </si>
+  <si>
+    <t>宽座角尺</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>成量宽座角尺200*125mm精度1级</t>
+  </si>
+  <si>
+    <t>上工百分表0-10mm 精度0.01mm</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝杆型万向开关式磁性表座，长度360MM</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>框式水平仪</t>
-  </si>
-  <si>
-    <t>出版社</t>
-  </si>
-  <si>
-    <t>作者</t>
-  </si>
-  <si>
-    <t>书店</t>
-  </si>
-  <si>
-    <t>磁力表座</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆宏宇框式水平仪100mm精度0.05mm</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?id=18309860339</t>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?id=12717961273</t>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?id=7687444344</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -154,15 +193,32 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -219,18 +275,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Input" xfId="2" builtinId="20"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="输入" xfId="2" builtinId="20"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -243,7 +300,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -532,21 +589,21 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="62.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="97.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -572,7 +629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -598,11 +655,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -615,7 +674,9 @@
       <c r="F3" s="2">
         <v>412</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
@@ -624,7 +685,9 @@
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
@@ -644,6 +707,9 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C5">
         <v>1</v>
       </c>
@@ -656,22 +722,41 @@
       <c r="F5">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>103</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
@@ -685,14 +770,15 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="8" max="8" width="66.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="66.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -723,40 +809,83 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>85</v>
+      </c>
+      <c r="E2">
+        <v>35</v>
+      </c>
+      <c r="F2">
+        <v>380.4</v>
+      </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>95.4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -769,9 +898,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
   </cols>
   <sheetData>
@@ -780,10 +909,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -798,10 +927,11 @@
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>